--- a/beta/Compiled Survey Data- Percentages.xlsx
+++ b/beta/Compiled Survey Data- Percentages.xlsx
@@ -479,34 +479,34 @@
             <c:strLit>
               <c:ptCount val="7"/>
               <c:pt idx="0">
-                <c:v>_x000c_Heavy Metals</c:v>
+                <c:v>_x0006_Metals</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>_x0004_Salt</c:v>
+                <c:v>_x0005__x0004_Salt</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>_x0008_Dirt/Mud</c:v>
+                <c:v>	_x0008_Dirt/Mud</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>	Pathogens</c:v>
+                <c:v>_x0014_Gaseous Hydrocarbons</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>_x0007_Mercury</c:v>
+                <c:v>_x0008__x0007_Mercury</c:v>
               </c:pt>
               <c:pt idx="5">
                 <c:v>_x0003_Oil</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>_x0014_Gaseous Hydrocarbons</c:v>
+                <c:v>_x0001_ </c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$29:$I$29</c:f>
+              <c:f>Sheet1!$C$29:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -523,9 +523,6 @@
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -543,34 +540,34 @@
             <c:strLit>
               <c:ptCount val="7"/>
               <c:pt idx="0">
-                <c:v>_x000c_Heavy Metals</c:v>
+                <c:v>_x0006_Metals</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>_x0004_Salt</c:v>
+                <c:v>_x0005__x0004_Salt</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>_x0008_Dirt/Mud</c:v>
+                <c:v>	_x0008_Dirt/Mud</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>	Pathogens</c:v>
+                <c:v>_x0014_Gaseous Hydrocarbons</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>_x0007_Mercury</c:v>
+                <c:v>_x0008__x0007_Mercury</c:v>
               </c:pt>
               <c:pt idx="5">
                 <c:v>_x0003_Oil</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>_x0014_Gaseous Hydrocarbons</c:v>
+                <c:v>_x0001_ </c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$I$30</c:f>
+              <c:f>Sheet1!$C$30:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -581,16 +578,13 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,34 +601,34 @@
             <c:strLit>
               <c:ptCount val="7"/>
               <c:pt idx="0">
-                <c:v>_x000c_Heavy Metals</c:v>
+                <c:v>_x0006_Metals</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>_x0004_Salt</c:v>
+                <c:v>_x0005__x0004_Salt</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>_x0008_Dirt/Mud</c:v>
+                <c:v>	_x0008_Dirt/Mud</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>	Pathogens</c:v>
+                <c:v>_x0014_Gaseous Hydrocarbons</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>_x0007_Mercury</c:v>
+                <c:v>_x0008__x0007_Mercury</c:v>
               </c:pt>
               <c:pt idx="5">
                 <c:v>_x0003_Oil</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>_x0014_Gaseous Hydrocarbons</c:v>
+                <c:v>_x0001_ </c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$I$31</c:f>
+              <c:f>Sheet1!$C$31:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>20.0</c:v>
                 </c:pt>
@@ -645,16 +639,13 @@
                   <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,34 +662,34 @@
             <c:strLit>
               <c:ptCount val="7"/>
               <c:pt idx="0">
-                <c:v>_x000c_Heavy Metals</c:v>
+                <c:v>_x0006_Metals</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>_x0004_Salt</c:v>
+                <c:v>_x0005__x0004_Salt</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>_x0008_Dirt/Mud</c:v>
+                <c:v>	_x0008_Dirt/Mud</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>	Pathogens</c:v>
+                <c:v>_x0014_Gaseous Hydrocarbons</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>_x0007_Mercury</c:v>
+                <c:v>_x0008__x0007_Mercury</c:v>
               </c:pt>
               <c:pt idx="5">
                 <c:v>_x0003_Oil</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>_x0014_Gaseous Hydrocarbons</c:v>
+                <c:v>_x0001_ </c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$32:$I$32</c:f>
+              <c:f>Sheet1!$C$32:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>20.0</c:v>
                 </c:pt>
@@ -709,16 +700,13 @@
                   <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,34 +723,34 @@
             <c:strLit>
               <c:ptCount val="7"/>
               <c:pt idx="0">
-                <c:v>_x000c_Heavy Metals</c:v>
+                <c:v>_x0006_Metals</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>_x0004_Salt</c:v>
+                <c:v>_x0005__x0004_Salt</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>_x0008_Dirt/Mud</c:v>
+                <c:v>	_x0008_Dirt/Mud</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>	Pathogens</c:v>
+                <c:v>_x0014_Gaseous Hydrocarbons</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>_x0007_Mercury</c:v>
+                <c:v>_x0008__x0007_Mercury</c:v>
               </c:pt>
               <c:pt idx="5">
                 <c:v>_x0003_Oil</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>_x0014_Gaseous Hydrocarbons</c:v>
+                <c:v>_x0001_ </c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$I$33</c:f>
+              <c:f>Sheet1!$C$33:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>40.0</c:v>
                 </c:pt>
@@ -773,16 +761,13 @@
                   <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.0</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,11 +783,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2124629576"/>
-        <c:axId val="-2124611176"/>
+        <c:axId val="2063739256"/>
+        <c:axId val="-2125433848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124629576"/>
+        <c:axId val="2063739256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124611176"/>
+        <c:crossAx val="-2125433848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -819,7 +804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124611176"/>
+        <c:axId val="-2125433848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -841,7 +826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124629576"/>
+        <c:crossAx val="2063739256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -886,16 +871,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1242,7 +1227,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+      <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1268,7 +1253,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>5</v>
@@ -1277,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>8</v>
@@ -1332,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="3">
         <v>5</v>
@@ -1341,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
@@ -1396,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
@@ -1405,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3">
         <v>7</v>
@@ -1524,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
@@ -1533,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3">
         <v>5</v>
@@ -1620,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
@@ -1629,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3">
         <v>9</v>
@@ -1684,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
@@ -1693,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>10</v>
@@ -1716,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
@@ -1725,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>8</v>
@@ -1748,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
@@ -1757,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
         <v>4</v>
@@ -1780,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="3">
         <v>5</v>
@@ -1789,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
         <v>8</v>
@@ -1812,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
@@ -1821,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3">
         <v>7</v>
@@ -1908,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="3">
         <v>4</v>
@@ -1917,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" s="3">
         <v>8</v>
@@ -1940,7 +1925,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
@@ -1949,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3">
         <v>7</v>
@@ -2004,7 +1989,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
@@ -2013,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>5</v>
@@ -2106,7 +2091,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="0"/>
+        <f>COUNT(F2:F26)</f>
         <v>25</v>
       </c>
       <c r="G27" s="11">
@@ -2118,7 +2103,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="0"/>
+        <f>COUNT(I2:I26)</f>
         <v>25</v>
       </c>
       <c r="J27" s="11">
@@ -2163,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F2:F26,1)/F27*100</f>
         <v>12</v>
       </c>
       <c r="G29" s="4">
@@ -2175,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I2:I26,1)/I27*100</f>
         <v>12</v>
       </c>
       <c r="J29" s="4">
@@ -2209,8 +2194,8 @@
         <v>4</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>COUNTIF(F2:F26,2)/25*100</f>
+        <v>8</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="2"/>
@@ -2221,8 +2206,8 @@
         <v>4</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>COUNTIF(I2:I26,2)/25*100</f>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="2"/>
@@ -2255,8 +2240,8 @@
         <v>32</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f>COUNTIF(F2:F26,3)/25*100</f>
+        <v>28.000000000000004</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="3"/>
@@ -2267,8 +2252,8 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="3"/>
-        <v>28.000000000000004</v>
+        <f>COUNTIF(I2:I26,3)/25*100</f>
+        <v>12</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="3"/>
@@ -2301,8 +2286,8 @@
         <v>16</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="4"/>
-        <v>28.000000000000004</v>
+        <f>COUNTIF(F2:F26,4)/25*100</f>
+        <v>8</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="4"/>
@@ -2313,8 +2298,8 @@
         <v>28.000000000000004</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>COUNTIF(I2:I26,4)/25*100</f>
+        <v>28.000000000000004</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="4"/>
@@ -2347,8 +2332,8 @@
         <v>32</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="5"/>
-        <v>48</v>
+        <f>COUNTIF(F2:F26,5)/25*100</f>
+        <v>44</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="5"/>
@@ -2359,8 +2344,8 @@
         <v>36</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="5"/>
-        <v>44</v>
+        <f>COUNTIF(I2:I26,5)/25*100</f>
+        <v>48</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="5"/>
@@ -2488,7 +2473,7 @@
         <v>100</v>
       </c>
       <c r="F39" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(F29:F38)</f>
         <v>100</v>
       </c>
       <c r="G39" s="22">
@@ -2500,7 +2485,7 @@
         <v>100</v>
       </c>
       <c r="I39" s="22">
-        <f t="shared" si="6"/>
+        <f>SUM(I29:I38)</f>
         <v>100</v>
       </c>
       <c r="J39" s="22">
